--- a/basic-forms/forms/contact/clinic-create.xlsx
+++ b/basic-forms/forms/contact/clinic-create.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -332,10 +332,10 @@
     <t xml:space="preserve">(This group for creating the primary contact _must_ be named `contact`.)</t>
   </si>
   <si>
+    <t xml:space="preserve">hidden</t>
+  </si>
+  <si>
     <t xml:space="preserve">parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hidden</t>
   </si>
   <si>
     <t xml:space="preserve">PARENT</t>
@@ -929,21 +929,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1054"/>
+  <dimension ref="A1:I1054"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.77"/>
@@ -1146,17 +1146,12 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="G19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1196,11 +1191,9 @@
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1293,17 +1286,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C31" s="4"/>
       <c r="G31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1354,11 +1342,9 @@
       <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1463,40 +1449,20 @@
     </row>
     <row r="45" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="0"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="0"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0"/>
-      <c r="Y45" s="0"/>
     </row>
     <row r="46" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
@@ -1513,22 +1479,6 @@
         <v>35</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="0"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="0"/>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="0"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0"/>
-      <c r="Y46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
@@ -1551,11 +1501,9 @@
       <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6574,7 +6522,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C9967 C2:C17 C19:C29 C31:C43">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($H2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9967">
@@ -6648,7 +6596,7 @@
       </c>
       <c r="C2" s="9" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250909130132</v>
+        <v>20251119134043</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>66</v>

--- a/basic-forms/forms/contact/clinic-create.xlsx
+++ b/basic-forms/forms/contact/clinic-create.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -185,9 +185,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -199,24 +198,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -417,9 +403,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -430,9 +413,6 @@
   </si>
   <si>
     <t xml:space="preserve">Create Household (with repeated children)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact:clinic:create</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -6556,18 +6536,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,26 +6562,20 @@
       <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092257</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119134043</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/contact/clinic-create.xlsx
+++ b/basic-forms/forms/contact/clinic-create.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -185,9 +185,8 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
+          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
+By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
@@ -199,24 +198,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
-By default, this template uses a formula to create a date-based version that will update automatically.</t>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
         </r>
       </text>
     </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="66">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -332,10 +318,10 @@
     <t xml:space="preserve">(This group for creating the primary contact _must_ be named `contact`.)</t>
   </si>
   <si>
-    <t xml:space="preserve">parent</t>
+    <t xml:space="preserve">hidden</t>
   </si>
   <si>
-    <t xml:space="preserve">hidden</t>
+    <t xml:space="preserve">parent</t>
   </si>
   <si>
     <t xml:space="preserve">PARENT</t>
@@ -417,9 +403,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -430,9 +413,6 @@
   </si>
   <si>
     <t xml:space="preserve">Create Household (with repeated children)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact:clinic:create</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -929,21 +909,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1054"/>
+  <dimension ref="A1:I1054"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.77"/>
@@ -1146,17 +1126,12 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="G19" s="4" t="s">
         <v>34</v>
       </c>
@@ -1196,11 +1171,9 @@
       <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1293,17 +1266,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C31" s="4"/>
       <c r="G31" s="1" t="s">
         <v>34</v>
       </c>
@@ -1354,11 +1322,9 @@
       <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1463,40 +1429,20 @@
     </row>
     <row r="45" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="0"/>
-      <c r="L45" s="0"/>
-      <c r="M45" s="0"/>
-      <c r="N45" s="0"/>
-      <c r="O45" s="0"/>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-      <c r="R45" s="0"/>
-      <c r="S45" s="0"/>
-      <c r="T45" s="0"/>
-      <c r="U45" s="0"/>
-      <c r="V45" s="0"/>
-      <c r="W45" s="0"/>
-      <c r="X45" s="0"/>
-      <c r="Y45" s="0"/>
     </row>
     <row r="46" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
@@ -1513,22 +1459,6 @@
         <v>35</v>
       </c>
       <c r="I46" s="1"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="0"/>
-      <c r="L46" s="0"/>
-      <c r="M46" s="0"/>
-      <c r="N46" s="0"/>
-      <c r="O46" s="0"/>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
-      <c r="R46" s="0"/>
-      <c r="S46" s="0"/>
-      <c r="T46" s="0"/>
-      <c r="U46" s="0"/>
-      <c r="V46" s="0"/>
-      <c r="W46" s="0"/>
-      <c r="X46" s="0"/>
-      <c r="Y46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
@@ -1551,11 +1481,9 @@
       <c r="B48" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6574,7 +6502,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C9967 C2:C17 C19:C29 C31:C43">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate",$A2="hidden")),ISBLANK($H2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9967">
@@ -6608,18 +6536,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="36.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,26 +6562,20 @@
       <c r="D1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="9" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092257</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250909130132</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
